--- a/Data.xlsx
+++ b/Data.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ff425566afd4dd94/PHD/sanchi papers/Materias letters/big paper/ML/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\OneDrive\PHD\sanchi papers\Materias letters\big paper\ML\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5AE5A57D-BAA8-4702-AD6F-019A0A133566}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B27C2702-7869-445F-AD90-8ACB5E6E9315}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -467,7 +467,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M247"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M1" sqref="M1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
@@ -550,7 +552,7 @@
         <v>1220.8398854987131</v>
       </c>
       <c r="M2">
-        <v>0.37772622242126969</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
@@ -591,7 +593,7 @@
         <v>988.28405439464007</v>
       </c>
       <c r="M3">
-        <v>-5.1277572126479987E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
@@ -673,7 +675,7 @@
         <v>989.31696613138081</v>
       </c>
       <c r="M5">
-        <v>-0.91252689589787106</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
@@ -714,7 +716,7 @@
         <v>1217.9685987381431</v>
       </c>
       <c r="M6">
-        <v>1.2915703348324421</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
@@ -755,7 +757,7 @@
         <v>1217.723534796113</v>
       </c>
       <c r="M7">
-        <v>0.61534097197200355</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
@@ -796,7 +798,7 @@
         <v>980.91918325020049</v>
       </c>
       <c r="M8">
-        <v>0.41411942624580372</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.3">
@@ -837,7 +839,7 @@
         <v>984.31741969460666</v>
       </c>
       <c r="M9">
-        <v>-0.1136420939449076</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.3">
@@ -878,7 +880,7 @@
         <v>1108.258432793873</v>
       </c>
       <c r="M10">
-        <v>-1.1043277482806231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.3">
@@ -1001,7 +1003,7 @@
         <v>986.91637794331803</v>
       </c>
       <c r="M13">
-        <v>0.76821218755191356</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.3">
@@ -1042,7 +1044,7 @@
         <v>1103.6768534312621</v>
       </c>
       <c r="M14">
-        <v>-1.0336229272082329</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.3">
@@ -1124,7 +1126,7 @@
         <v>1107.6253564533511</v>
       </c>
       <c r="M16">
-        <v>-1.0954459644554371</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.3">
@@ -1206,7 +1208,7 @@
         <v>985.2099859415739</v>
       </c>
       <c r="M18">
-        <v>0.27071054036003478</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.3">
@@ -1411,7 +1413,7 @@
         <v>984.30440079075765</v>
       </c>
       <c r="M23">
-        <v>-1.2974516280847861</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.3">
@@ -1452,7 +1454,7 @@
         <v>1219.833840191947</v>
       </c>
       <c r="M24">
-        <v>0.89903844145624434</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.3">
@@ -1493,7 +1495,7 @@
         <v>991.84406172012234</v>
       </c>
       <c r="M25">
-        <v>-1.006810649576052</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.3">
@@ -1534,7 +1536,7 @@
         <v>988.52513501653573</v>
       </c>
       <c r="M26">
-        <v>-4.1935301554703812E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.3">
@@ -1575,7 +1577,7 @@
         <v>1112.3355482347099</v>
       </c>
       <c r="M27">
-        <v>-0.79488730946598984</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.3">
@@ -1616,7 +1618,7 @@
         <v>1221.170514821637</v>
       </c>
       <c r="M28">
-        <v>-0.33927146556935689</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.3">
@@ -1739,7 +1741,7 @@
         <v>1106.1182402840509</v>
       </c>
       <c r="M31">
-        <v>4.6677358089923827E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.3">
@@ -1780,7 +1782,7 @@
         <v>1108.2370104963841</v>
       </c>
       <c r="M32">
-        <v>0.25985334340113592</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.3">
@@ -1821,7 +1823,7 @@
         <v>985.20618436637903</v>
       </c>
       <c r="M33">
-        <v>0.2951545303008376</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.3">
@@ -1903,7 +1905,7 @@
         <v>1104.6310230376671</v>
       </c>
       <c r="M35">
-        <v>-0.62059478618412289</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.3">
@@ -1944,7 +1946,7 @@
         <v>986.27931958346346</v>
       </c>
       <c r="M36">
-        <v>-0.49218255742583622</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.3">
@@ -1985,7 +1987,7 @@
         <v>1107.1749939547581</v>
       </c>
       <c r="M37">
-        <v>-0.28173915294373958</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.3">
@@ -2149,7 +2151,7 @@
         <v>988.59008554435241</v>
       </c>
       <c r="M41">
-        <v>0.7092055642885452</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.3">
@@ -2190,7 +2192,7 @@
         <v>984.33145590459969</v>
       </c>
       <c r="M42">
-        <v>-0.35856835874618331</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.3">
@@ -2231,7 +2233,7 @@
         <v>1113.3439644000059</v>
       </c>
       <c r="M43">
-        <v>1.2277793675699931</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.3">
@@ -2354,7 +2356,7 @@
         <v>1104.440491951922</v>
       </c>
       <c r="M46">
-        <v>0.97046857926371455</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.3">
@@ -2559,7 +2561,7 @@
         <v>1105.0048772503751</v>
       </c>
       <c r="M51">
-        <v>-2.3121954472156521</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.3">
@@ -2600,7 +2602,7 @@
         <v>1108.883635270088</v>
       </c>
       <c r="M52">
-        <v>0.4867591655470897</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.3">
@@ -2641,7 +2643,7 @@
         <v>1112.75108858625</v>
       </c>
       <c r="M53">
-        <v>0.42532227846168419</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.3">
@@ -2682,7 +2684,7 @@
         <v>1216.5097744520001</v>
       </c>
       <c r="M54">
-        <v>-0.94391134864340298</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.3">
@@ -2723,7 +2725,7 @@
         <v>1107.2119993801989</v>
       </c>
       <c r="M55">
-        <v>-0.22204121802499241</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.3">
@@ -2887,7 +2889,7 @@
         <v>991.20034317132399</v>
       </c>
       <c r="M59">
-        <v>-0.74558633766651583</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.3">
@@ -2928,7 +2930,7 @@
         <v>985.90671206566947</v>
       </c>
       <c r="M60">
-        <v>-1.813219320882548</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.3">
@@ -2969,7 +2971,7 @@
         <v>987.15973486741848</v>
       </c>
       <c r="M61">
-        <v>-0.8373163464630381</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:13" x14ac:dyDescent="0.3">
@@ -3051,7 +3053,7 @@
         <v>1107.957498204278</v>
       </c>
       <c r="M63">
-        <v>-0.76219721709688426</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:13" x14ac:dyDescent="0.3">
@@ -3133,7 +3135,7 @@
         <v>980.88156270758577</v>
       </c>
       <c r="M65">
-        <v>1.9318888506569809</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:13" x14ac:dyDescent="0.3">
@@ -3174,7 +3176,7 @@
         <v>1118.337890272697</v>
       </c>
       <c r="M66">
-        <v>37.052988265000749</v>
+        <v>37.0529882650007</v>
       </c>
     </row>
     <row r="67" spans="1:13" x14ac:dyDescent="0.3">
@@ -3215,7 +3217,7 @@
         <v>1110.501434117841</v>
       </c>
       <c r="M67">
-        <v>1.023538140915957</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:13" x14ac:dyDescent="0.3">
@@ -3256,7 +3258,7 @@
         <v>980.28944953313601</v>
       </c>
       <c r="M68">
-        <v>-0.45047186349496271</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:13" x14ac:dyDescent="0.3">
@@ -3297,7 +3299,7 @@
         <v>985.52666028098281</v>
       </c>
       <c r="M69">
-        <v>-0.32988928506378129</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:13" x14ac:dyDescent="0.3">
@@ -3379,7 +3381,7 @@
         <v>1110.8844973487089</v>
       </c>
       <c r="M71">
-        <v>-4.522139278678617E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:13" x14ac:dyDescent="0.3">
@@ -3420,7 +3422,7 @@
         <v>987.60192187649477</v>
       </c>
       <c r="M72">
-        <v>-0.33470303003063512</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:13" x14ac:dyDescent="0.3">
@@ -3461,7 +3463,7 @@
         <v>1111.3562780301129</v>
       </c>
       <c r="M73">
-        <v>9.6724796131971869E-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:13" x14ac:dyDescent="0.3">
@@ -3502,7 +3504,7 @@
         <v>987.39137781047123</v>
       </c>
       <c r="M74">
-        <v>0.70179994052714767</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:13" x14ac:dyDescent="0.3">
@@ -3543,7 +3545,7 @@
         <v>1107.678623380865</v>
       </c>
       <c r="M75">
-        <v>0.68956529259247279</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:13" x14ac:dyDescent="0.3">
@@ -3625,7 +3627,7 @@
         <v>1109.289853177936</v>
       </c>
       <c r="M77">
-        <v>0.63445256896007063</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:13" x14ac:dyDescent="0.3">
@@ -3666,7 +3668,7 @@
         <v>1215.7806829464689</v>
       </c>
       <c r="M78">
-        <v>0.28351267838241528</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:13" x14ac:dyDescent="0.3">
@@ -3707,7 +3709,7 @@
         <v>1108.877492775636</v>
       </c>
       <c r="M79">
-        <v>-0.68647085466031421</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:13" x14ac:dyDescent="0.3">
@@ -3748,7 +3750,7 @@
         <v>1108.86080334762</v>
       </c>
       <c r="M80">
-        <v>0.45366949242826887</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:13" x14ac:dyDescent="0.3">
@@ -3830,7 +3832,7 @@
         <v>1114.6417486900989</v>
       </c>
       <c r="M82">
-        <v>2.578222041374196E-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:13" x14ac:dyDescent="0.3">
@@ -3871,7 +3873,7 @@
         <v>1109.3125157389661</v>
       </c>
       <c r="M83">
-        <v>0.2016814124447468</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:13" x14ac:dyDescent="0.3">
@@ -3912,7 +3914,7 @@
         <v>987.22853738367348</v>
       </c>
       <c r="M84">
-        <v>0.5508897771124921</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:13" x14ac:dyDescent="0.3">
@@ -3953,7 +3955,7 @@
         <v>980.46807873267596</v>
       </c>
       <c r="M85">
-        <v>1.6667278680122</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:13" x14ac:dyDescent="0.3">
@@ -3994,7 +3996,7 @@
         <v>986.51644544504029</v>
       </c>
       <c r="M86">
-        <v>-0.36414758819331122</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:13" x14ac:dyDescent="0.3">
@@ -4035,7 +4037,7 @@
         <v>1217.2052311317011</v>
       </c>
       <c r="M87">
-        <v>0.24414183481328139</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:13" x14ac:dyDescent="0.3">
@@ -4117,7 +4119,7 @@
         <v>1110.5448022718249</v>
       </c>
       <c r="M89">
-        <v>0.172726721223708</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:13" x14ac:dyDescent="0.3">
@@ -4158,7 +4160,7 @@
         <v>989.65717342963819</v>
       </c>
       <c r="M90">
-        <v>-0.1096869979681652</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:13" x14ac:dyDescent="0.3">
@@ -4199,7 +4201,7 @@
         <v>984.36389744155792</v>
       </c>
       <c r="M91">
-        <v>-0.74850114023755354</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:13" x14ac:dyDescent="0.3">
@@ -4281,7 +4283,7 @@
         <v>1111.275601595547</v>
       </c>
       <c r="M93">
-        <v>0.59328143840097392</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:13" x14ac:dyDescent="0.3">
@@ -4486,7 +4488,7 @@
         <v>985.94890719754642</v>
       </c>
       <c r="M98">
-        <v>0.1453007791536659</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:13" x14ac:dyDescent="0.3">
@@ -4568,7 +4570,7 @@
         <v>1217.1995280748031</v>
       </c>
       <c r="M100">
-        <v>-1.3629916377216891</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:13" x14ac:dyDescent="0.3">
@@ -4773,7 +4775,7 @@
         <v>1111.6711908943221</v>
       </c>
       <c r="M105">
-        <v>1.3159292303603809</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106" spans="1:13" x14ac:dyDescent="0.3">
@@ -4814,7 +4816,7 @@
         <v>1103.8254145911919</v>
       </c>
       <c r="M106">
-        <v>0.94146396448051073</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107" spans="1:13" x14ac:dyDescent="0.3">
@@ -4896,7 +4898,7 @@
         <v>1106.577701867501</v>
       </c>
       <c r="M108">
-        <v>-0.50248947179375536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109" spans="1:13" x14ac:dyDescent="0.3">
@@ -4978,7 +4980,7 @@
         <v>981.30707067096625</v>
       </c>
       <c r="M110">
-        <v>1.022658781455261</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111" spans="1:13" x14ac:dyDescent="0.3">
@@ -5060,7 +5062,7 @@
         <v>1109.338096604951</v>
       </c>
       <c r="M112">
-        <v>-0.67404930503558136</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113" spans="1:13" x14ac:dyDescent="0.3">
@@ -5101,7 +5103,7 @@
         <v>1109.0121406446631</v>
       </c>
       <c r="M113">
-        <v>1.591226992226586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114" spans="1:13" x14ac:dyDescent="0.3">
@@ -5142,7 +5144,7 @@
         <v>1215.44989052203</v>
       </c>
       <c r="M114">
-        <v>0.91192375342492515</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115" spans="1:13" x14ac:dyDescent="0.3">
@@ -5183,7 +5185,7 @@
         <v>986.34783405089252</v>
       </c>
       <c r="M115">
-        <v>-0.82986069142456009</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116" spans="1:13" x14ac:dyDescent="0.3">
@@ -5224,7 +5226,7 @@
         <v>1108.012211283195</v>
       </c>
       <c r="M116">
-        <v>-8.3555280960164929E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117" spans="1:13" x14ac:dyDescent="0.3">
@@ -5306,7 +5308,7 @@
         <v>988.5658576627568</v>
       </c>
       <c r="M118">
-        <v>1.0359134516529029</v>
+        <v>0</v>
       </c>
     </row>
     <row r="119" spans="1:13" x14ac:dyDescent="0.3">
@@ -5347,7 +5349,7 @@
         <v>1109.5276507735621</v>
       </c>
       <c r="M119">
-        <v>-0.36379898099461988</v>
+        <v>0</v>
       </c>
     </row>
     <row r="120" spans="1:13" x14ac:dyDescent="0.3">
@@ -5388,7 +5390,7 @@
         <v>1103.0284541262399</v>
       </c>
       <c r="M120">
-        <v>0.48525082389343382</v>
+        <v>0</v>
       </c>
     </row>
     <row r="121" spans="1:13" x14ac:dyDescent="0.3">
@@ -5429,7 +5431,7 @@
         <v>1109.400704732715</v>
       </c>
       <c r="M121">
-        <v>1.451990123398079</v>
+        <v>0</v>
       </c>
     </row>
     <row r="122" spans="1:13" x14ac:dyDescent="0.3">
@@ -5470,7 +5472,7 @@
         <v>983.44009751539352</v>
       </c>
       <c r="M122">
-        <v>-0.96940772642823037</v>
+        <v>0</v>
       </c>
     </row>
     <row r="123" spans="1:13" x14ac:dyDescent="0.3">
@@ -5511,7 +5513,7 @@
         <v>1112.9280852062</v>
       </c>
       <c r="M123">
-        <v>0.78433674607345483</v>
+        <v>0</v>
       </c>
     </row>
     <row r="124" spans="1:13" x14ac:dyDescent="0.3">
@@ -5552,7 +5554,7 @@
         <v>1113.021365696952</v>
       </c>
       <c r="M124">
-        <v>7.3446583643496016E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125" spans="1:13" x14ac:dyDescent="0.3">
@@ -5634,7 +5636,7 @@
         <v>1105.323912487604</v>
       </c>
       <c r="M126">
-        <v>-0.59949515632972794</v>
+        <v>0</v>
       </c>
     </row>
     <row r="127" spans="1:13" x14ac:dyDescent="0.3">
@@ -5716,7 +5718,7 @@
         <v>989.1708988891387</v>
       </c>
       <c r="M128">
-        <v>0.35157550943256372</v>
+        <v>0</v>
       </c>
     </row>
     <row r="129" spans="1:13" x14ac:dyDescent="0.3">
@@ -5757,7 +5759,7 @@
         <v>981.43607100568283</v>
       </c>
       <c r="M129">
-        <v>-0.45902362151874387</v>
+        <v>0</v>
       </c>
     </row>
     <row r="130" spans="1:13" x14ac:dyDescent="0.3">
@@ -5839,7 +5841,7 @@
         <v>1110.41176937203</v>
       </c>
       <c r="M131">
-        <v>0.47026180854804128</v>
+        <v>0</v>
       </c>
     </row>
     <row r="132" spans="1:13" x14ac:dyDescent="0.3">
@@ -5880,7 +5882,7 @@
         <v>1109.7525933588629</v>
       </c>
       <c r="M132">
-        <v>-2.5555470338715121</v>
+        <v>0</v>
       </c>
     </row>
     <row r="133" spans="1:13" x14ac:dyDescent="0.3">
@@ -5962,7 +5964,7 @@
         <v>1108.518498793715</v>
       </c>
       <c r="M134">
-        <v>0.28328729418654752</v>
+        <v>0</v>
       </c>
     </row>
     <row r="135" spans="1:13" x14ac:dyDescent="0.3">
@@ -6003,7 +6005,7 @@
         <v>989.08868488743076</v>
       </c>
       <c r="M135">
-        <v>0.89471639491294641</v>
+        <v>0</v>
       </c>
     </row>
     <row r="136" spans="1:13" x14ac:dyDescent="0.3">
@@ -6044,7 +6046,7 @@
         <v>1110.628028128488</v>
       </c>
       <c r="M136">
-        <v>0.38279733526019899</v>
+        <v>0</v>
       </c>
     </row>
     <row r="137" spans="1:13" x14ac:dyDescent="0.3">
@@ -6085,7 +6087,7 @@
         <v>1106.153669973796</v>
       </c>
       <c r="M137">
-        <v>-8.9555231699593452E-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="138" spans="1:13" x14ac:dyDescent="0.3">
@@ -6126,7 +6128,7 @@
         <v>1109.471692659954</v>
       </c>
       <c r="M138">
-        <v>-0.51814313162513459</v>
+        <v>0</v>
       </c>
     </row>
     <row r="139" spans="1:13" x14ac:dyDescent="0.3">
@@ -6167,7 +6169,7 @@
         <v>991.21918068087155</v>
       </c>
       <c r="M139">
-        <v>-0.10249108230563531</v>
+        <v>0</v>
       </c>
     </row>
     <row r="140" spans="1:13" x14ac:dyDescent="0.3">
@@ -6208,7 +6210,7 @@
         <v>1104.7262129909971</v>
       </c>
       <c r="M140">
-        <v>9.5683329976592735E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="141" spans="1:13" x14ac:dyDescent="0.3">
@@ -6249,7 +6251,7 @@
         <v>1108.777169898294</v>
       </c>
       <c r="M141">
-        <v>-0.342430737878339</v>
+        <v>0</v>
       </c>
     </row>
     <row r="142" spans="1:13" x14ac:dyDescent="0.3">
@@ -6372,7 +6374,7 @@
         <v>1111.611279924296</v>
       </c>
       <c r="M144">
-        <v>0.56581781486425531</v>
+        <v>0</v>
       </c>
     </row>
     <row r="145" spans="1:13" x14ac:dyDescent="0.3">
@@ -6577,7 +6579,7 @@
         <v>1104.628127716124</v>
       </c>
       <c r="M149">
-        <v>5.7772913647809593E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="150" spans="1:13" x14ac:dyDescent="0.3">
@@ -6618,7 +6620,7 @@
         <v>1110.478145671867</v>
       </c>
       <c r="M150">
-        <v>0.15875853496663181</v>
+        <v>0</v>
       </c>
     </row>
     <row r="151" spans="1:13" x14ac:dyDescent="0.3">
@@ -6700,7 +6702,7 @@
         <v>1111.725396536362</v>
       </c>
       <c r="M152">
-        <v>0.35441016190095859</v>
+        <v>0</v>
       </c>
     </row>
     <row r="153" spans="1:13" x14ac:dyDescent="0.3">
@@ -6741,7 +6743,7 @@
         <v>986.56640678034239</v>
       </c>
       <c r="M153">
-        <v>0.1468611309265154</v>
+        <v>0</v>
       </c>
     </row>
     <row r="154" spans="1:13" x14ac:dyDescent="0.3">
@@ -6823,7 +6825,7 @@
         <v>1107.3772881162561</v>
       </c>
       <c r="M155">
-        <v>0.55887420785242525</v>
+        <v>0</v>
       </c>
     </row>
     <row r="156" spans="1:13" x14ac:dyDescent="0.3">
@@ -6905,7 +6907,7 @@
         <v>1111.0090164146679</v>
       </c>
       <c r="M157">
-        <v>1.4135335323915541</v>
+        <v>0</v>
       </c>
     </row>
     <row r="158" spans="1:13" x14ac:dyDescent="0.3">
@@ -6946,7 +6948,7 @@
         <v>992.88950468581697</v>
       </c>
       <c r="M158">
-        <v>1.0804413051363611</v>
+        <v>0</v>
       </c>
     </row>
     <row r="159" spans="1:13" x14ac:dyDescent="0.3">
@@ -7028,7 +7030,7 @@
         <v>1217.9879459975921</v>
       </c>
       <c r="M160">
-        <v>0.89990927084467442</v>
+        <v>0</v>
       </c>
     </row>
     <row r="161" spans="1:13" x14ac:dyDescent="0.3">
@@ -7110,7 +7112,7 @@
         <v>988.15270479087724</v>
       </c>
       <c r="M162">
-        <v>0.14304319502957399</v>
+        <v>0</v>
       </c>
     </row>
     <row r="163" spans="1:13" x14ac:dyDescent="0.3">
@@ -7192,7 +7194,7 @@
         <v>1105.457236777484</v>
       </c>
       <c r="M164">
-        <v>1.100441715936602</v>
+        <v>0</v>
       </c>
     </row>
     <row r="165" spans="1:13" x14ac:dyDescent="0.3">
@@ -7233,7 +7235,7 @@
         <v>1105.1298867582391</v>
       </c>
       <c r="M165">
-        <v>0.68127193661834617</v>
+        <v>0</v>
       </c>
     </row>
     <row r="166" spans="1:13" x14ac:dyDescent="0.3">
@@ -7356,7 +7358,7 @@
         <v>1106.95078680234</v>
       </c>
       <c r="M168">
-        <v>0.19522458674646079</v>
+        <v>0</v>
       </c>
     </row>
     <row r="169" spans="1:13" x14ac:dyDescent="0.3">
@@ -7438,7 +7440,7 @@
         <v>1106.0702804700629</v>
       </c>
       <c r="M170">
-        <v>0.50615279407660829</v>
+        <v>0</v>
       </c>
     </row>
     <row r="171" spans="1:13" x14ac:dyDescent="0.3">
@@ -7479,7 +7481,7 @@
         <v>1107.7846371365531</v>
       </c>
       <c r="M171">
-        <v>-0.75407593164421394</v>
+        <v>0</v>
       </c>
     </row>
     <row r="172" spans="1:13" x14ac:dyDescent="0.3">
@@ -7520,7 +7522,7 @@
         <v>976.32427737359546</v>
       </c>
       <c r="M172">
-        <v>-1.661312135307359</v>
+        <v>0</v>
       </c>
     </row>
     <row r="173" spans="1:13" x14ac:dyDescent="0.3">
@@ -7602,7 +7604,7 @@
         <v>1106.5139427986401</v>
       </c>
       <c r="M174">
-        <v>-1.8690153959288872E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="175" spans="1:13" x14ac:dyDescent="0.3">
@@ -7684,7 +7686,7 @@
         <v>1107.5480756553161</v>
       </c>
       <c r="M176">
-        <v>0.82074059686085554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="177" spans="1:13" x14ac:dyDescent="0.3">
@@ -7725,7 +7727,7 @@
         <v>1105.118237819632</v>
       </c>
       <c r="M177">
-        <v>0.4569653032238144</v>
+        <v>0</v>
       </c>
     </row>
     <row r="178" spans="1:13" x14ac:dyDescent="0.3">
@@ -7766,7 +7768,7 @@
         <v>1107.471764510238</v>
       </c>
       <c r="M178">
-        <v>-0.67389027234938315</v>
+        <v>0</v>
       </c>
     </row>
     <row r="179" spans="1:13" x14ac:dyDescent="0.3">
@@ -7930,7 +7932,7 @@
         <v>982.76732818730056</v>
       </c>
       <c r="M182">
-        <v>1.302532912327514</v>
+        <v>0</v>
       </c>
     </row>
     <row r="183" spans="1:13" x14ac:dyDescent="0.3">
@@ -8053,7 +8055,7 @@
         <v>984.71618967550967</v>
       </c>
       <c r="M185">
-        <v>0.6086113809192214</v>
+        <v>0</v>
       </c>
     </row>
     <row r="186" spans="1:13" x14ac:dyDescent="0.3">
@@ -8094,7 +8096,7 @@
         <v>985.21609683204883</v>
       </c>
       <c r="M186">
-        <v>-1.1138219317421001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="187" spans="1:13" x14ac:dyDescent="0.3">
@@ -8135,7 +8137,7 @@
         <v>1111.266056819569</v>
       </c>
       <c r="M187">
-        <v>-1.2080893821481351</v>
+        <v>0</v>
       </c>
     </row>
     <row r="188" spans="1:13" x14ac:dyDescent="0.3">
@@ -8176,7 +8178,7 @@
         <v>984.26595771433961</v>
       </c>
       <c r="M188">
-        <v>1.37264490576736</v>
+        <v>0</v>
       </c>
     </row>
     <row r="189" spans="1:13" x14ac:dyDescent="0.3">
@@ -8217,7 +8219,7 @@
         <v>1114.389970310169</v>
       </c>
       <c r="M189">
-        <v>0.44478106610276957</v>
+        <v>0</v>
       </c>
     </row>
     <row r="190" spans="1:13" x14ac:dyDescent="0.3">
@@ -8299,7 +8301,7 @@
         <v>1107.707719346688</v>
       </c>
       <c r="M191">
-        <v>-0.3092512435928339</v>
+        <v>0</v>
       </c>
     </row>
     <row r="192" spans="1:13" x14ac:dyDescent="0.3">
@@ -8340,7 +8342,7 @@
         <v>1113.1473500825621</v>
       </c>
       <c r="M192">
-        <v>0.23025798299896649</v>
+        <v>0</v>
       </c>
     </row>
     <row r="193" spans="1:13" x14ac:dyDescent="0.3">
@@ -8381,7 +8383,7 @@
         <v>1105.7744317807301</v>
       </c>
       <c r="M193">
-        <v>0.31547403161680859</v>
+        <v>0</v>
       </c>
     </row>
     <row r="194" spans="1:13" x14ac:dyDescent="0.3">
@@ -8545,7 +8547,7 @@
         <v>980.03314799370287</v>
       </c>
       <c r="M197">
-        <v>-0.16280623822993309</v>
+        <v>0</v>
       </c>
     </row>
     <row r="198" spans="1:13" x14ac:dyDescent="0.3">
@@ -8586,7 +8588,7 @@
         <v>1106.0946492361841</v>
       </c>
       <c r="M198">
-        <v>-1.384972995550193</v>
+        <v>0</v>
       </c>
     </row>
     <row r="199" spans="1:13" x14ac:dyDescent="0.3">
@@ -8627,7 +8629,7 @@
         <v>988.01520301959431</v>
       </c>
       <c r="M199">
-        <v>-0.40216601963796578</v>
+        <v>0</v>
       </c>
     </row>
     <row r="200" spans="1:13" x14ac:dyDescent="0.3">
@@ -8668,7 +8670,7 @@
         <v>1113.3398806590569</v>
       </c>
       <c r="M200">
-        <v>0.94697449521460708</v>
+        <v>0</v>
       </c>
     </row>
     <row r="201" spans="1:13" x14ac:dyDescent="0.3">
@@ -8791,7 +8793,7 @@
         <v>986.36275513315172</v>
       </c>
       <c r="M203">
-        <v>-0.1585063856097422</v>
+        <v>0</v>
       </c>
     </row>
     <row r="204" spans="1:13" x14ac:dyDescent="0.3">
@@ -8832,7 +8834,7 @@
         <v>994.88749335574289</v>
       </c>
       <c r="M204">
-        <v>0.16700308084169571</v>
+        <v>0</v>
       </c>
     </row>
     <row r="205" spans="1:13" x14ac:dyDescent="0.3">
@@ -8873,7 +8875,7 @@
         <v>1105.0597377440761</v>
       </c>
       <c r="M205">
-        <v>0.90469128089246709</v>
+        <v>0</v>
       </c>
     </row>
     <row r="206" spans="1:13" x14ac:dyDescent="0.3">
@@ -8914,7 +8916,7 @@
         <v>1106.5089599604851</v>
       </c>
       <c r="M206">
-        <v>0.55047719946814744</v>
+        <v>0</v>
       </c>
     </row>
     <row r="207" spans="1:13" x14ac:dyDescent="0.3">
@@ -8955,7 +8957,7 @@
         <v>1109.0054184168339</v>
       </c>
       <c r="M207">
-        <v>0.81682891602710983</v>
+        <v>0</v>
       </c>
     </row>
     <row r="208" spans="1:13" x14ac:dyDescent="0.3">
@@ -8996,7 +8998,7 @@
         <v>1113.1082371321249</v>
       </c>
       <c r="M208">
-        <v>-1.3238740600701371</v>
+        <v>0</v>
       </c>
     </row>
     <row r="209" spans="1:13" x14ac:dyDescent="0.3">
@@ -9037,7 +9039,7 @@
         <v>1109.3567979682221</v>
       </c>
       <c r="M209">
-        <v>0.95048627484232062</v>
+        <v>0</v>
       </c>
     </row>
     <row r="210" spans="1:13" x14ac:dyDescent="0.3">
@@ -9119,7 +9121,7 @@
         <v>1108.0963646602449</v>
       </c>
       <c r="M211">
-        <v>-0.67913136937651597</v>
+        <v>0</v>
       </c>
     </row>
     <row r="212" spans="1:13" x14ac:dyDescent="0.3">
@@ -9160,7 +9162,7 @@
         <v>1111.4607793880521</v>
       </c>
       <c r="M212">
-        <v>-0.71977523291804224</v>
+        <v>0</v>
       </c>
     </row>
     <row r="213" spans="1:13" x14ac:dyDescent="0.3">
@@ -9242,7 +9244,7 @@
         <v>1215.3497614104519</v>
       </c>
       <c r="M214">
-        <v>-0.96491549794168918</v>
+        <v>0</v>
       </c>
     </row>
     <row r="215" spans="1:13" x14ac:dyDescent="0.3">
@@ -9324,7 +9326,7 @@
         <v>991.17925036532108</v>
       </c>
       <c r="M216">
-        <v>-1.751164622728866</v>
+        <v>0</v>
       </c>
     </row>
     <row r="217" spans="1:13" x14ac:dyDescent="0.3">
@@ -9365,7 +9367,7 @@
         <v>1114.439924639807</v>
       </c>
       <c r="M217">
-        <v>0.28943273619479071</v>
+        <v>0</v>
       </c>
     </row>
     <row r="218" spans="1:13" x14ac:dyDescent="0.3">
@@ -9488,7 +9490,7 @@
         <v>1106.156313296405</v>
       </c>
       <c r="M220">
-        <v>-1.5112102167804291</v>
+        <v>0</v>
       </c>
     </row>
     <row r="221" spans="1:13" x14ac:dyDescent="0.3">
@@ -9529,7 +9531,7 @@
         <v>988.53801478504408</v>
       </c>
       <c r="M221">
-        <v>5.192656210107003E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="222" spans="1:13" x14ac:dyDescent="0.3">
@@ -9611,7 +9613,7 @@
         <v>1209.186573160202</v>
       </c>
       <c r="M223">
-        <v>-1.137090909642942</v>
+        <v>0</v>
       </c>
     </row>
     <row r="224" spans="1:13" x14ac:dyDescent="0.3">
@@ -9652,7 +9654,7 @@
         <v>1104.424260339918</v>
       </c>
       <c r="M224">
-        <v>-0.77742413630589402</v>
+        <v>0</v>
       </c>
     </row>
     <row r="225" spans="1:13" x14ac:dyDescent="0.3">
@@ -9693,7 +9695,7 @@
         <v>1114.245763314362</v>
       </c>
       <c r="M225">
-        <v>0.41176104637888972</v>
+        <v>0</v>
       </c>
     </row>
     <row r="226" spans="1:13" x14ac:dyDescent="0.3">
@@ -9734,7 +9736,7 @@
         <v>985.27217914641449</v>
       </c>
       <c r="M226">
-        <v>0.71857625491097454</v>
+        <v>0</v>
       </c>
     </row>
     <row r="227" spans="1:13" x14ac:dyDescent="0.3">
@@ -9775,7 +9777,7 @@
         <v>1221.889983097373</v>
       </c>
       <c r="M227">
-        <v>-0.66696336977472725</v>
+        <v>0</v>
       </c>
     </row>
     <row r="228" spans="1:13" x14ac:dyDescent="0.3">
@@ -9816,7 +9818,7 @@
         <v>985.88640673605823</v>
       </c>
       <c r="M228">
-        <v>-1.8189010824632279</v>
+        <v>0</v>
       </c>
     </row>
     <row r="229" spans="1:13" x14ac:dyDescent="0.3">
@@ -9857,7 +9859,7 @@
         <v>1111.6367923995381</v>
       </c>
       <c r="M229">
-        <v>-1.0421311826884481</v>
+        <v>0</v>
       </c>
     </row>
     <row r="230" spans="1:13" x14ac:dyDescent="0.3">
@@ -9898,7 +9900,7 @@
         <v>1112.422440583995</v>
       </c>
       <c r="M230">
-        <v>-0.51620680758877147</v>
+        <v>0</v>
       </c>
     </row>
     <row r="231" spans="1:13" x14ac:dyDescent="0.3">
@@ -9939,7 +9941,7 @@
         <v>1215.9658145955771</v>
       </c>
       <c r="M231">
-        <v>-0.38105650390185047</v>
+        <v>0</v>
       </c>
     </row>
     <row r="232" spans="1:13" x14ac:dyDescent="0.3">
@@ -9980,7 +9982,7 @@
         <v>1105.620242615212</v>
       </c>
       <c r="M232">
-        <v>0.72381013948355433</v>
+        <v>0</v>
       </c>
     </row>
     <row r="233" spans="1:13" x14ac:dyDescent="0.3">
@@ -10021,7 +10023,7 @@
         <v>1212.9017823941299</v>
       </c>
       <c r="M233">
-        <v>0.82510486906870251</v>
+        <v>0</v>
       </c>
     </row>
     <row r="234" spans="1:13" x14ac:dyDescent="0.3">
@@ -10062,7 +10064,7 @@
         <v>1215.4682068635859</v>
       </c>
       <c r="M234">
-        <v>0.77992467388426945</v>
+        <v>0</v>
       </c>
     </row>
     <row r="235" spans="1:13" x14ac:dyDescent="0.3">
@@ -10103,7 +10105,7 @@
         <v>989.35157933592961</v>
       </c>
       <c r="M235">
-        <v>-1.702802451931688E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="236" spans="1:13" x14ac:dyDescent="0.3">
@@ -10144,7 +10146,7 @@
         <v>1109.1673081459801</v>
       </c>
       <c r="M236">
-        <v>-1.7187691355415791</v>
+        <v>0</v>
       </c>
     </row>
     <row r="237" spans="1:13" x14ac:dyDescent="0.3">
@@ -10226,7 +10228,7 @@
         <v>1107.194745910527</v>
       </c>
       <c r="M238">
-        <v>-0.43716075635107438</v>
+        <v>0</v>
       </c>
     </row>
     <row r="239" spans="1:13" x14ac:dyDescent="0.3">
@@ -10267,7 +10269,7 @@
         <v>977.66987297498849</v>
       </c>
       <c r="M239">
-        <v>0.85969504072112934</v>
+        <v>0</v>
       </c>
     </row>
     <row r="240" spans="1:13" x14ac:dyDescent="0.3">
@@ -10308,7 +10310,7 @@
         <v>1107.898246689746</v>
       </c>
       <c r="M240">
-        <v>2.7703192242149511E-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="241" spans="1:13" x14ac:dyDescent="0.3">
@@ -10349,7 +10351,7 @@
         <v>1109.594929179789</v>
       </c>
       <c r="M241">
-        <v>0.17768294233148951</v>
+        <v>0</v>
       </c>
     </row>
     <row r="242" spans="1:13" x14ac:dyDescent="0.3">
@@ -10431,7 +10433,7 @@
         <v>1104.4910884320941</v>
       </c>
       <c r="M243">
-        <v>0.24828029319720771</v>
+        <v>0</v>
       </c>
     </row>
     <row r="244" spans="1:13" x14ac:dyDescent="0.3">
@@ -10472,7 +10474,7 @@
         <v>1111.563807193445</v>
       </c>
       <c r="M244">
-        <v>0.37807104839949818</v>
+        <v>0</v>
       </c>
     </row>
     <row r="245" spans="1:13" x14ac:dyDescent="0.3">
@@ -10513,7 +10515,7 @@
         <v>988.5301346211304</v>
       </c>
       <c r="M245">
-        <v>2.2631345278800752</v>
+        <v>0</v>
       </c>
     </row>
     <row r="246" spans="1:13" x14ac:dyDescent="0.3">
@@ -10554,7 +10556,7 @@
         <v>1108.795218104241</v>
       </c>
       <c r="M246">
-        <v>-0.92478209730657768</v>
+        <v>0</v>
       </c>
     </row>
     <row r="247" spans="1:13" x14ac:dyDescent="0.3">
@@ -10595,7 +10597,7 @@
         <v>1212.851510343469</v>
       </c>
       <c r="M247">
-        <v>-0.86872679614138171</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
